--- a/biology/Botanique/Parc_central_de_Vinnytsia/Parc_central_de_Vinnytsia.xlsx
+++ b/biology/Botanique/Parc_central_de_Vinnytsia/Parc_central_de_Vinnytsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc central de Vinnytsia  (en ukrainien : Центральний міський парк Вінниці) est un parc d'agrément classé à Vinnytsia, en Ukraine.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien parc Maxim Gorky ou parc Leontovitch, il a été créé en 1936 et se trouve au centre-ville entre les rues Soborna et Magistratska. Il est décoré de monuments aux morts de la guerre d'Afghanistan, aux fusiliers de la Sitch, aux policiers. Il abrite aussi un stade, un planétarium, une patinoire, une salle de cinéma. Endommagé lors de la seconde guerre mondiale, il est rénové aussitôt après.
 </t>
